--- a/sentiment2022-12-10.xlsx
+++ b/sentiment2022-12-10.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanc\Desktop\Group-Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF88F32-89A7-40F7-9EA0-C8CE448C87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="280">
   <si>
     <t>Open</t>
   </si>
@@ -49,42 +55,273 @@
     <t>Date</t>
   </si>
   <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>2022-02-04</t>
+  </si>
+  <si>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-09</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-12</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-28</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
     <t>2022-07-07</t>
   </si>
   <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
     <t>2022-07-12</t>
   </si>
   <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
     <t>2022-07-26</t>
   </si>
   <si>
+    <t>2022-07-27</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2022-08-02</t>
+  </si>
+  <si>
     <t>2022-08-05</t>
   </si>
   <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
     <t>2022-08-11</t>
   </si>
   <si>
     <t>2022-08-16</t>
   </si>
   <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
     <t>2022-08-19</t>
   </si>
   <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
     <t>2022-08-26</t>
   </si>
   <si>
     <t>2022-08-29</t>
   </si>
   <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
     <t>2022-08-31</t>
   </si>
   <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
     <t>2022-09-07</t>
   </si>
   <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
     <t>2022-09-13</t>
   </si>
   <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
     <t>2022-09-15</t>
   </si>
   <si>
@@ -97,9 +334,15 @@
     <t>2022-09-20</t>
   </si>
   <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
     <t>2022-09-22</t>
   </si>
   <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
     <t>2022-09-27</t>
   </si>
   <si>
@@ -109,6 +352,9 @@
     <t>2022-09-29</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
     <t>2022-10-03</t>
   </si>
   <si>
@@ -121,6 +367,9 @@
     <t>2022-10-07</t>
   </si>
   <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
     <t>2022-10-11</t>
   </si>
   <si>
@@ -139,9 +388,15 @@
     <t>2022-10-21</t>
   </si>
   <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
     <t>2022-10-25</t>
   </si>
   <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
     <t>2022-10-27</t>
   </si>
   <si>
@@ -151,9 +406,15 @@
     <t>2022-11-02</t>
   </si>
   <si>
+    <t>2022-11-03</t>
+  </si>
+  <si>
     <t>2022-11-04</t>
   </si>
   <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
     <t>2022-11-08</t>
   </si>
   <si>
@@ -166,24 +427,39 @@
     <t>2022-11-11</t>
   </si>
   <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
     <t>2022-11-15</t>
   </si>
   <si>
     <t>2022-11-16</t>
   </si>
   <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
     <t>2022-11-18</t>
   </si>
   <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
     <t>2022-11-23</t>
   </si>
   <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
     <t>2022-11-28</t>
   </si>
   <si>
     <t>2022-11-29</t>
   </si>
   <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
     <t>2022-12-02</t>
   </si>
   <si>
@@ -196,39 +472,243 @@
     <t>2022-12-08</t>
   </si>
   <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-0.4%</t>
+  </si>
+  <si>
+    <t>-0.12%</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>-0.71%</t>
+  </si>
+  <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>2.14%</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>0.53%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
+    <t>-0.54%</t>
+  </si>
+  <si>
+    <t>-2.48%</t>
+  </si>
+  <si>
+    <t>1.06%</t>
+  </si>
+  <si>
+    <t>-1.16%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>0.84%</t>
+  </si>
+  <si>
+    <t>-1.36%</t>
+  </si>
+  <si>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>-0.09%</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>-1.08%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>-2.34%</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>-2.53%</t>
+  </si>
+  <si>
+    <t>-1.71%</t>
+  </si>
+  <si>
+    <t>-1.34%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>-2.88%</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>1.29%</t>
+  </si>
+  <si>
+    <t>-0.15%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>-1.93%</t>
+  </si>
+  <si>
+    <t>-0.79%</t>
+  </si>
+  <si>
+    <t>-1.04%</t>
+  </si>
+  <si>
+    <t>0.86%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
     <t>1.0%</t>
   </si>
   <si>
+    <t>-0.42%</t>
+  </si>
+  <si>
     <t>-0.74%</t>
   </si>
   <si>
+    <t>0.99%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
     <t>-0.75%</t>
   </si>
   <si>
+    <t>1.69%</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>-0.26%</t>
+  </si>
+  <si>
     <t>0.93%</t>
   </si>
   <si>
-    <t>-0.71%</t>
+    <t>-0.21%</t>
   </si>
   <si>
     <t>0.46%</t>
   </si>
   <si>
+    <t>0.17%</t>
+  </si>
+  <si>
     <t>-0.67%</t>
   </si>
   <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
     <t>-3.36%</t>
   </si>
   <si>
-    <t>0.11%</t>
+    <t>-1.4%</t>
   </si>
   <si>
     <t>-1.19%</t>
   </si>
   <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>-2.01%</t>
+  </si>
+  <si>
+    <t>-0.6%</t>
+  </si>
+  <si>
     <t>1.88%</t>
   </si>
   <si>
+    <t>1.26%</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
     <t>-2.17%</t>
   </si>
   <si>
@@ -244,18 +724,24 @@
     <t>-0.25%</t>
   </si>
   <si>
+    <t>-2.26%</t>
+  </si>
+  <si>
     <t>-0.63%</t>
   </si>
   <si>
+    <t>-0.57%</t>
+  </si>
+  <si>
     <t>-1.26%</t>
   </si>
   <si>
-    <t>1.69%</t>
-  </si>
-  <si>
     <t>-1.1%</t>
   </si>
   <si>
+    <t>-1.28%</t>
+  </si>
+  <si>
     <t>1.53%</t>
   </si>
   <si>
@@ -277,15 +763,12 @@
     <t>-2.96%</t>
   </si>
   <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>-0.13%</t>
-  </si>
-  <si>
     <t>2.51%</t>
   </si>
   <si>
+    <t>0.79%</t>
+  </si>
+  <si>
     <t>1.62%</t>
   </si>
   <si>
@@ -313,65 +796,77 @@
     <t>0.74%</t>
   </si>
   <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
     <t>-0.66%</t>
   </si>
   <si>
     <t>-0.34%</t>
   </si>
   <si>
+    <t>0.97%</t>
+  </si>
+  <si>
     <t>-0.43%</t>
   </si>
   <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
     <t>0.72%</t>
   </si>
   <si>
+    <t>0.12%</t>
+  </si>
+  <si>
     <t>-0.8%</t>
   </si>
   <si>
-    <t>-0.21%</t>
+    <t>3.08%</t>
   </si>
   <si>
     <t>1.16%</t>
   </si>
   <si>
-    <t>-1.4%</t>
-  </si>
-  <si>
     <t>0.06%</t>
   </si>
   <si>
     <t>0.28%</t>
   </si>
   <si>
+    <t>(-0.99, 0.01]</t>
+  </si>
+  <si>
     <t>(0.01, 1.01]</t>
   </si>
   <si>
-    <t>(-0.99, 0.01]</t>
+    <t>(1.01, 2.01]</t>
+  </si>
+  <si>
+    <t>(-1.99, -0.99]</t>
+  </si>
+  <si>
+    <t>(2.01, 3.01]</t>
+  </si>
+  <si>
+    <t>(-2.99, -1.99]</t>
   </si>
   <si>
     <t>(-3.99, -2.99]</t>
   </si>
   <si>
-    <t>(-1.99, -0.99]</t>
-  </si>
-  <si>
-    <t>(1.01, 2.01]</t>
-  </si>
-  <si>
-    <t>(-2.99, -1.99]</t>
-  </si>
-  <si>
     <t>(4.01, 5.01]</t>
   </si>
   <si>
-    <t>(2.01, 3.01]</t>
+    <t>(3.01, 4.01]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +929,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,7 +983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +1015,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +1067,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,14 +1260,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -763,1719 +1304,4869 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>385.1199951171875</v>
+        <v>461.54998779296881</v>
       </c>
       <c r="C2">
-        <v>389.8299865722656</v>
+        <v>464.739990234375</v>
       </c>
       <c r="D2">
-        <v>383.2699890136719</v>
+        <v>458.05999755859381</v>
       </c>
       <c r="E2">
-        <v>388.989990234375</v>
+        <v>459.8699951171875</v>
       </c>
       <c r="F2">
-        <v>387.3986206054688</v>
+        <v>454.60647583007813</v>
       </c>
       <c r="G2">
-        <v>64525900</v>
+        <v>135511600</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="J2">
-        <v>6.55999755859375</v>
+        <v>6.67999267578125</v>
       </c>
       <c r="K2">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>383.6499938964844</v>
+        <v>454.48001098632813</v>
       </c>
       <c r="C3">
-        <v>386.1600036621094</v>
+        <v>455.39999389648438</v>
       </c>
       <c r="D3">
-        <v>378.989990234375</v>
+        <v>451.1400146484375</v>
       </c>
       <c r="E3">
-        <v>380.8299865722656</v>
+        <v>454.98001098632813</v>
       </c>
       <c r="F3">
-        <v>379.2720031738281</v>
+        <v>449.7724609375</v>
       </c>
       <c r="G3">
-        <v>62219200</v>
+        <v>107134800</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J3">
-        <v>7.170013427734375</v>
+        <v>4.259979248046875</v>
       </c>
       <c r="K3">
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>393.8399963378906</v>
+        <v>472.05999755859381</v>
       </c>
       <c r="C4">
-        <v>394.0599975585938</v>
+        <v>477.30999755859381</v>
       </c>
       <c r="D4">
-        <v>389.9500122070312</v>
+        <v>472.010009765625</v>
       </c>
       <c r="E4">
-        <v>390.8900146484375</v>
+        <v>477.260009765625</v>
       </c>
       <c r="F4">
-        <v>389.2908630371094</v>
+        <v>471.79745483398438</v>
       </c>
       <c r="G4">
-        <v>52946400</v>
+        <v>56808600</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="J4">
-        <v>4.1099853515625</v>
+        <v>5.29998779296875</v>
       </c>
       <c r="K4">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>409.6600036621094</v>
+        <v>476.98001098632813</v>
       </c>
       <c r="C5">
-        <v>414.1499938964844</v>
+        <v>478.55999755859381</v>
       </c>
       <c r="D5">
-        <v>409.6000061035156</v>
+        <v>475.92001342773438</v>
       </c>
       <c r="E5">
-        <v>413.4700012207031</v>
+        <v>477.48001098632813</v>
       </c>
       <c r="F5">
-        <v>411.7784729003906</v>
+        <v>472.01495361328119</v>
       </c>
       <c r="G5">
-        <v>56814900</v>
+        <v>54503000</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="J5">
-        <v>4.54998779296875</v>
+        <v>2.639984130859375</v>
       </c>
       <c r="K5">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>422.989990234375</v>
+        <v>476.29998779296881</v>
       </c>
       <c r="C6">
-        <v>424.9500122070312</v>
+        <v>477.85000610351563</v>
       </c>
       <c r="D6">
-        <v>419.2099914550781</v>
+        <v>473.85000610351563</v>
       </c>
       <c r="E6">
-        <v>419.989990234375</v>
+        <v>477.70999145507813</v>
       </c>
       <c r="F6">
-        <v>418.2717895507812</v>
+        <v>472.2423095703125</v>
       </c>
       <c r="G6">
-        <v>59489700</v>
+        <v>72668200</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J6">
-        <v>5.740020751953125</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>427.7300109863281</v>
+        <v>479.22000122070313</v>
       </c>
       <c r="C7">
-        <v>431.7300109863281</v>
+        <v>479.98001098632813</v>
       </c>
       <c r="D7">
-        <v>426.8800048828125</v>
+        <v>475.57998657226563</v>
       </c>
       <c r="E7">
-        <v>429.7000122070312</v>
+        <v>477.54998779296881</v>
       </c>
       <c r="F7">
-        <v>427.9421081542969</v>
+        <v>472.08413696289063</v>
       </c>
       <c r="G7">
-        <v>59289000</v>
+        <v>71178700</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="J7">
-        <v>4.850006103515625</v>
+        <v>4.4000244140625</v>
       </c>
       <c r="K7">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <v>424.9800109863281</v>
+        <v>467.95001220703119</v>
       </c>
       <c r="C8">
-        <v>425.260009765625</v>
+        <v>469.20001220703119</v>
       </c>
       <c r="D8">
-        <v>421.2200012207031</v>
+        <v>464.64999389648438</v>
       </c>
       <c r="E8">
-        <v>422.1400146484375</v>
+        <v>466.08999633789063</v>
       </c>
       <c r="F8">
-        <v>420.4130249023438</v>
+        <v>460.75531005859381</v>
       </c>
       <c r="G8">
-        <v>68016900</v>
+        <v>85111600</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="J8">
-        <v>4.040008544921875</v>
+        <v>4.550018310546875</v>
       </c>
       <c r="K8">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>419.3900146484375</v>
+        <v>471.58999633789063</v>
       </c>
       <c r="C9">
-        <v>419.9599914550781</v>
+        <v>473.20001220703119</v>
       </c>
       <c r="D9">
-        <v>405.25</v>
+        <v>468.94000244140619</v>
       </c>
       <c r="E9">
-        <v>405.3099975585938</v>
+        <v>471.01998901367188</v>
       </c>
       <c r="F9">
-        <v>403.65185546875</v>
+        <v>465.62887573242188</v>
       </c>
       <c r="G9">
-        <v>103087000</v>
+        <v>67605400</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="J9">
-        <v>14.70999145507812</v>
+        <v>4.260009765625</v>
       </c>
       <c r="K9">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>402.2000122070312</v>
+        <v>461.19000244140619</v>
       </c>
       <c r="C10">
-        <v>405.8399963378906</v>
+        <v>465.08999633789063</v>
       </c>
       <c r="D10">
-        <v>401.2000122070312</v>
+        <v>459.89999389648438</v>
       </c>
       <c r="E10">
-        <v>402.6300048828125</v>
+        <v>464.72000122070313</v>
       </c>
       <c r="F10">
-        <v>400.9828491210938</v>
+        <v>459.4010009765625</v>
       </c>
       <c r="G10">
-        <v>65370800</v>
+        <v>95890900</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="J10">
-        <v>4.639984130859375</v>
+        <v>5.19000244140625</v>
       </c>
       <c r="K10">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>399.9299926757812</v>
+        <v>459.739990234375</v>
       </c>
       <c r="C11">
-        <v>401.239990234375</v>
+        <v>459.95999145507813</v>
       </c>
       <c r="D11">
-        <v>395.0400085449219</v>
+        <v>455.30999755859381</v>
       </c>
       <c r="E11">
-        <v>395.1799926757812</v>
+        <v>456.489990234375</v>
       </c>
       <c r="F11">
-        <v>393.5632934570312</v>
+        <v>451.26519775390619</v>
       </c>
       <c r="G11">
-        <v>76029700</v>
+        <v>109709100</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="J11">
-        <v>6.199981689453125</v>
+        <v>4.649993896484375</v>
       </c>
       <c r="K11">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12">
-        <v>390.4299926757812</v>
+        <v>458.1300048828125</v>
       </c>
       <c r="C12">
-        <v>398.5899963378906</v>
+        <v>459.6099853515625</v>
       </c>
       <c r="D12">
-        <v>390.2000122070312</v>
+        <v>451.45999145507813</v>
       </c>
       <c r="E12">
-        <v>397.7799987792969</v>
+        <v>451.75</v>
       </c>
       <c r="F12">
-        <v>396.1526794433594</v>
+        <v>446.57943725585938</v>
       </c>
       <c r="G12">
-        <v>70964200</v>
+        <v>109357600</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="J12">
-        <v>8.389984130859375</v>
+        <v>8.149993896484375</v>
       </c>
       <c r="K12">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>401.8299865722656</v>
+        <v>433.05999755859381</v>
       </c>
       <c r="C13">
-        <v>403.1000061035156</v>
+        <v>439.72000122070313</v>
       </c>
       <c r="D13">
-        <v>391.9200134277344</v>
+        <v>427.14999389648438</v>
       </c>
       <c r="E13">
-        <v>393.1000061035156</v>
+        <v>434.47000122070313</v>
       </c>
       <c r="F13">
-        <v>391.4918212890625</v>
+        <v>429.49722290039063</v>
       </c>
       <c r="G13">
-        <v>122947100</v>
+        <v>167997300</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="J13">
-        <v>11.17999267578125</v>
+        <v>12.57000732421875</v>
       </c>
       <c r="K13">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14">
-        <v>392.9599914550781</v>
+        <v>432.67999267578119</v>
       </c>
       <c r="C14">
-        <v>395.9599914550781</v>
+        <v>442</v>
       </c>
       <c r="D14">
-        <v>388.7799987792969</v>
+        <v>427.82000732421881</v>
       </c>
       <c r="E14">
-        <v>390.1199951171875</v>
+        <v>441.95001220703119</v>
       </c>
       <c r="F14">
-        <v>388.5240173339844</v>
+        <v>436.8916015625</v>
       </c>
       <c r="G14">
-        <v>87633800</v>
+        <v>164457400</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="J14">
-        <v>7.17999267578125</v>
+        <v>14.17999267578125</v>
       </c>
       <c r="K14">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>384.1400146484375</v>
+        <v>455.5</v>
       </c>
       <c r="C15">
-        <v>386.25</v>
+        <v>458.1199951171875</v>
       </c>
       <c r="D15">
-        <v>382.1099853515625</v>
+        <v>453.04998779296881</v>
       </c>
       <c r="E15">
-        <v>385.5599975585938</v>
+        <v>457.35000610351563</v>
       </c>
       <c r="F15">
-        <v>385.5599975585938</v>
+        <v>452.1153564453125</v>
       </c>
       <c r="G15">
-        <v>103084800</v>
+        <v>117361000</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="J15">
-        <v>4.1400146484375</v>
+        <v>5.07000732421875</v>
       </c>
       <c r="K15">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>382.260009765625</v>
+        <v>446.35000610351563</v>
       </c>
       <c r="C16">
-        <v>388.5499877929688</v>
+        <v>452.77999877929688</v>
       </c>
       <c r="D16">
-        <v>382.1799926757812</v>
+        <v>443.82998657226563</v>
       </c>
       <c r="E16">
-        <v>388.5499877929688</v>
+        <v>448.70001220703119</v>
       </c>
       <c r="F16">
-        <v>388.5499877929688</v>
+        <v>443.5643310546875</v>
       </c>
       <c r="G16">
-        <v>73278500</v>
+        <v>118454400</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="J16">
-        <v>6.3699951171875</v>
+        <v>8.95001220703125</v>
       </c>
       <c r="K16">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>385.0599975585938</v>
+        <v>446.73001098632813</v>
       </c>
       <c r="C17">
-        <v>386.1199951171875</v>
+        <v>451.92001342773438</v>
       </c>
       <c r="D17">
-        <v>381.2000122070312</v>
+        <v>445.22000122070313</v>
       </c>
       <c r="E17">
-        <v>384.0899963378906</v>
+        <v>450.94000244140619</v>
       </c>
       <c r="F17">
-        <v>384.0899963378906</v>
+        <v>445.77871704101563</v>
       </c>
       <c r="G17">
-        <v>77274900</v>
+        <v>81012000</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J17">
-        <v>4.91998291015625</v>
+        <v>6.70001220703125</v>
       </c>
       <c r="K17">
-        <v>-53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>376.5799865722656</v>
+        <v>455.22000122070313</v>
       </c>
       <c r="C18">
-        <v>378.2999877929688</v>
+        <v>457.8800048828125</v>
       </c>
       <c r="D18">
-        <v>373.4400024414062</v>
+        <v>455.010009765625</v>
       </c>
       <c r="E18">
-        <v>374.2200012207031</v>
+        <v>457.54000854492188</v>
       </c>
       <c r="F18">
-        <v>374.2200012207031</v>
+        <v>452.30319213867188</v>
       </c>
       <c r="G18">
-        <v>89472600</v>
+        <v>92589900</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J18">
-        <v>4.8599853515625</v>
+        <v>2.8699951171875</v>
       </c>
       <c r="K18">
-        <v>-124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>368.0199890136719</v>
+        <v>437.32998657226563</v>
       </c>
       <c r="C19">
-        <v>370.3999938964844</v>
+        <v>438.66000366210938</v>
       </c>
       <c r="D19">
-        <v>360.8699951171875</v>
+        <v>431.82000732421881</v>
       </c>
       <c r="E19">
-        <v>363.3800048828125</v>
+        <v>434.23001098632813</v>
       </c>
       <c r="F19">
-        <v>363.3800048828125</v>
+        <v>429.25997924804688</v>
       </c>
       <c r="G19">
-        <v>108294100</v>
+        <v>132642900</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="J19">
-        <v>9.529998779296875</v>
+        <v>6.839996337890625</v>
       </c>
       <c r="K19">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20">
-        <v>364.3800048828125</v>
+        <v>431.8900146484375</v>
       </c>
       <c r="C20">
-        <v>372.2999877929688</v>
+        <v>435.5</v>
       </c>
       <c r="D20">
-        <v>362.6000061035156</v>
+        <v>425.8599853515625</v>
       </c>
       <c r="E20">
-        <v>370.5299987792969</v>
+        <v>429.57000732421881</v>
       </c>
       <c r="F20">
-        <v>370.5299987792969</v>
+        <v>424.6533203125</v>
       </c>
       <c r="G20">
-        <v>110802200</v>
+        <v>124391800</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="J20">
-        <v>9.699981689453125</v>
+        <v>9.6400146484375</v>
       </c>
       <c r="K20">
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>366.8099975585938</v>
+        <v>432.66000366210938</v>
       </c>
       <c r="C21">
-        <v>367.1099853515625</v>
+        <v>433.260009765625</v>
       </c>
       <c r="D21">
-        <v>359.7000122070312</v>
+        <v>421.35000610351563</v>
       </c>
       <c r="E21">
-        <v>362.7900085449219</v>
+        <v>421.95001220703119</v>
       </c>
       <c r="F21">
-        <v>362.7900085449219</v>
+        <v>417.12054443359381</v>
       </c>
       <c r="G21">
-        <v>112952300</v>
+        <v>132578000</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="J21">
-        <v>7.40997314453125</v>
+        <v>11.91000366210938</v>
       </c>
       <c r="K21">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>361.0799865722656</v>
+        <v>432.02999877929688</v>
       </c>
       <c r="C22">
-        <v>368.5499877929688</v>
+        <v>438.20001220703119</v>
       </c>
       <c r="D22">
-        <v>359.2099914550781</v>
+        <v>430.70001220703119</v>
       </c>
       <c r="E22">
-        <v>366.6099853515625</v>
+        <v>436.6300048828125</v>
       </c>
       <c r="F22">
-        <v>366.6099853515625</v>
+        <v>431.63250732421881</v>
       </c>
       <c r="G22">
-        <v>89756500</v>
+        <v>145615000</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="J22">
-        <v>9.339996337890625</v>
+        <v>7.5</v>
       </c>
       <c r="K22">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23">
-        <v>372.3999938964844</v>
+        <v>435.04000854492188</v>
       </c>
       <c r="C23">
-        <v>378</v>
+        <v>437.17001342773438</v>
       </c>
       <c r="D23">
-        <v>366.5700073242188</v>
+        <v>427.1099853515625</v>
       </c>
       <c r="E23">
-        <v>377.9700012207031</v>
+        <v>429.98001098632813</v>
       </c>
       <c r="F23">
-        <v>377.9700012207031</v>
+        <v>425.05862426757813</v>
       </c>
       <c r="G23">
-        <v>103602800</v>
+        <v>137785900</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="J23">
-        <v>11.42999267578125</v>
+        <v>10.06002807617188</v>
       </c>
       <c r="K23">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24">
-        <v>375.6199951171875</v>
+        <v>425.1400146484375</v>
       </c>
       <c r="C24">
-        <v>378.7200012207031</v>
+        <v>429.510009765625</v>
       </c>
       <c r="D24">
-        <v>372.6799926757812</v>
+        <v>422.82000732421881</v>
       </c>
       <c r="E24">
-        <v>373.2000122070312</v>
+        <v>427.41000366210938</v>
       </c>
       <c r="F24">
-        <v>373.2000122070312</v>
+        <v>422.51803588867188</v>
       </c>
       <c r="G24">
-        <v>82333500</v>
+        <v>116990800</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J24">
-        <v>6.040008544921875</v>
+        <v>6.69000244140625</v>
       </c>
       <c r="K24">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25">
-        <v>368.9700012207031</v>
+        <v>422.51998901367188</v>
       </c>
       <c r="C25">
-        <v>373.2900085449219</v>
+        <v>426.42999267578119</v>
       </c>
       <c r="D25">
-        <v>360.9400024414062</v>
+        <v>420.44000244140619</v>
       </c>
       <c r="E25">
-        <v>362.7900085449219</v>
+        <v>425.48001098632813</v>
       </c>
       <c r="F25">
-        <v>362.7900085449219</v>
+        <v>420.61013793945313</v>
       </c>
       <c r="G25">
-        <v>107789500</v>
+        <v>93972700</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="J25">
-        <v>12.35000610351562</v>
+        <v>5.989990234375</v>
       </c>
       <c r="K25">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26">
-        <v>358.239990234375</v>
+        <v>444.33999633789063</v>
       </c>
       <c r="C26">
-        <v>363.0299987792969</v>
+        <v>446.45999145507813</v>
       </c>
       <c r="D26">
-        <v>355.7099914550781</v>
+        <v>440.67999267578119</v>
       </c>
       <c r="E26">
-        <v>357.739990234375</v>
+        <v>444.3900146484375</v>
       </c>
       <c r="F26">
-        <v>357.739990234375</v>
+        <v>440.66845703125</v>
       </c>
       <c r="G26">
-        <v>92482800</v>
+        <v>88349800</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J26">
-        <v>7.32000732421875</v>
+        <v>5.779998779296875</v>
       </c>
       <c r="K26">
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27">
-        <v>349.2099914550781</v>
+        <v>445.8599853515625</v>
       </c>
       <c r="C27">
-        <v>367.510009765625</v>
+        <v>450.57998657226563</v>
       </c>
       <c r="D27">
-        <v>348.1099853515625</v>
+        <v>445.8599853515625</v>
       </c>
       <c r="E27">
-        <v>365.9700012207031</v>
+        <v>449.58999633789063</v>
       </c>
       <c r="F27">
-        <v>365.9700012207031</v>
+        <v>445.82489013671881</v>
       </c>
       <c r="G27">
-        <v>147254500</v>
+        <v>74650400</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="J27">
-        <v>19.4000244140625</v>
+        <v>4.720001220703125</v>
       </c>
       <c r="K27">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28">
-        <v>368.5499877929688</v>
+        <v>460.33999633789063</v>
       </c>
       <c r="C28">
-        <v>370.260009765625</v>
+        <v>461.20001220703119</v>
       </c>
       <c r="D28">
-        <v>356.9599914550781</v>
+        <v>456.47000122070313</v>
       </c>
       <c r="E28">
-        <v>357.6300048828125</v>
+        <v>458.70001220703119</v>
       </c>
       <c r="F28">
-        <v>357.6300048828125</v>
+        <v>454.85861206054688</v>
       </c>
       <c r="G28">
-        <v>123737000</v>
+        <v>79666900</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="J28">
-        <v>13.30001831054688</v>
+        <v>4.730010986328125</v>
       </c>
       <c r="K28">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29">
-        <v>364.010009765625</v>
+        <v>457.8900146484375</v>
       </c>
       <c r="C29">
-        <v>367.9800109863281</v>
+        <v>458.760009765625</v>
       </c>
       <c r="D29">
-        <v>357.2799987792969</v>
+        <v>451.16000366210938</v>
       </c>
       <c r="E29">
-        <v>366.8200073242188</v>
+        <v>451.6400146484375</v>
       </c>
       <c r="F29">
-        <v>366.8200073242188</v>
+        <v>447.85772705078119</v>
       </c>
       <c r="G29">
-        <v>93168200</v>
+        <v>121699900</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="J29">
-        <v>10.70001220703125</v>
+        <v>7.600006103515625</v>
       </c>
       <c r="K29">
-        <v>-37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30">
-        <v>368.989990234375</v>
+        <v>455.22000122070313</v>
       </c>
       <c r="C30">
-        <v>371.8500061035156</v>
+        <v>457.82998657226563</v>
       </c>
       <c r="D30">
-        <v>365.5499877929688</v>
+        <v>449.82000732421881</v>
       </c>
       <c r="E30">
-        <v>368.5</v>
+        <v>451.02999877929688</v>
       </c>
       <c r="F30">
-        <v>368.5</v>
+        <v>447.2528076171875</v>
       </c>
       <c r="G30">
-        <v>79746900</v>
+        <v>74214500</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="J30">
-        <v>6.300018310546875</v>
+        <v>8.009979248046875</v>
       </c>
       <c r="K30">
-        <v>-62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31">
-        <v>365.1199951171875</v>
+        <v>447.97000122070313</v>
       </c>
       <c r="C31">
-        <v>374.7999877929688</v>
+        <v>450.6300048828125</v>
       </c>
       <c r="D31">
-        <v>363.5400085449219</v>
+        <v>445.94000244140619</v>
       </c>
       <c r="E31">
-        <v>374.2900085449219</v>
+        <v>447.57000732421881</v>
       </c>
       <c r="F31">
-        <v>374.2900085449219</v>
+        <v>443.82180786132813</v>
       </c>
       <c r="G31">
-        <v>131038400</v>
+        <v>79272700</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="J31">
-        <v>11.25997924804688</v>
+        <v>4.69000244140625</v>
       </c>
       <c r="K31">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32">
-        <v>378.7900085449219</v>
+        <v>444.1099853515625</v>
       </c>
       <c r="C32">
-        <v>385.25</v>
+        <v>445</v>
       </c>
       <c r="D32">
-        <v>378.6700134277344</v>
+        <v>439.3900146484375</v>
       </c>
       <c r="E32">
-        <v>384.9200134277344</v>
+        <v>439.92001342773438</v>
       </c>
       <c r="F32">
-        <v>384.9200134277344</v>
+        <v>436.23587036132813</v>
       </c>
       <c r="G32">
-        <v>78846300</v>
+        <v>89770500</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="J32">
-        <v>6.579986572265625</v>
+        <v>5.6099853515625</v>
       </c>
       <c r="K32">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33">
-        <v>383.0700073242188</v>
+        <v>443.07998657226563</v>
       </c>
       <c r="C33">
-        <v>385</v>
+        <v>445.75</v>
       </c>
       <c r="D33">
-        <v>379.3299865722656</v>
+        <v>436.64999389648438</v>
       </c>
       <c r="E33">
-        <v>379.9800109863281</v>
+        <v>438.29000854492188</v>
       </c>
       <c r="F33">
-        <v>379.9800109863281</v>
+        <v>434.61953735351563</v>
       </c>
       <c r="G33">
-        <v>81971800</v>
+        <v>84363600</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="J33">
-        <v>5.670013427734375</v>
+        <v>9.100006103515625</v>
       </c>
       <c r="K33">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B34">
-        <v>386.4400024414062</v>
+        <v>437.8599853515625</v>
       </c>
       <c r="C34">
-        <v>388.3999938964844</v>
+        <v>445.79998779296881</v>
       </c>
       <c r="D34">
-        <v>385.260009765625</v>
+        <v>437.67999267578119</v>
       </c>
       <c r="E34">
-        <v>386.2099914550781</v>
+        <v>445.04000854492188</v>
       </c>
       <c r="F34">
-        <v>386.2099914550781</v>
+        <v>441.31298828125</v>
       </c>
       <c r="G34">
-        <v>96631300</v>
+        <v>77821000</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="J34">
-        <v>3.139984130859375</v>
+        <v>8.1199951171875</v>
       </c>
       <c r="K34">
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35">
-        <v>383.8999938964844</v>
+        <v>448.54000854492188</v>
       </c>
       <c r="C35">
-        <v>388.6300048828125</v>
+        <v>450.010009765625</v>
       </c>
       <c r="D35">
-        <v>374.760009765625</v>
+        <v>437.10000610351563</v>
       </c>
       <c r="E35">
-        <v>374.8699951171875</v>
+        <v>438.05999755859381</v>
       </c>
       <c r="F35">
-        <v>374.8699951171875</v>
+        <v>434.39144897460938</v>
       </c>
       <c r="G35">
-        <v>126990400</v>
+        <v>85417300</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="J35">
-        <v>13.8699951171875</v>
+        <v>12.91000366210938</v>
       </c>
       <c r="K35">
-        <v>-118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36">
-        <v>377</v>
+        <v>423.67001342773438</v>
       </c>
       <c r="C36">
-        <v>378.8699951171875</v>
+        <v>428.69000244140619</v>
       </c>
       <c r="D36">
-        <v>370</v>
+        <v>418.83999633789063</v>
       </c>
       <c r="E36">
-        <v>376.3500061035156</v>
+        <v>428.510009765625</v>
       </c>
       <c r="F36">
-        <v>376.3500061035156</v>
+        <v>424.92141723632813</v>
       </c>
       <c r="G36">
-        <v>103505200</v>
+        <v>119647700</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="J36">
-        <v>8.8699951171875</v>
+        <v>9.850006103515625</v>
       </c>
       <c r="K36">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37">
-        <v>381.1099853515625</v>
+        <v>422.29000854492188</v>
       </c>
       <c r="C37">
-        <v>385.1199951171875</v>
+        <v>429.6400146484375</v>
       </c>
       <c r="D37">
-        <v>377.7200012207031</v>
+        <v>417.60000610351563</v>
       </c>
       <c r="E37">
-        <v>382</v>
+        <v>427.80999755859381</v>
       </c>
       <c r="F37">
-        <v>382</v>
+        <v>424.227294921875</v>
       </c>
       <c r="G37">
-        <v>84641100</v>
+        <v>105449100</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="J37">
-        <v>7.399993896484375</v>
+        <v>12.04000854492188</v>
       </c>
       <c r="K37">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38">
-        <v>379.9299926757812</v>
+        <v>412.07000732421881</v>
       </c>
       <c r="C38">
-        <v>381.1400146484375</v>
+        <v>415.92001342773438</v>
       </c>
       <c r="D38">
-        <v>373.6099853515625</v>
+        <v>405.01998901367188</v>
       </c>
       <c r="E38">
-        <v>374.1300048828125</v>
+        <v>414.48001098632813</v>
       </c>
       <c r="F38">
-        <v>374.1300048828125</v>
+        <v>411.0089111328125</v>
       </c>
       <c r="G38">
-        <v>78495500</v>
+        <v>158312500</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="J38">
-        <v>7.530029296875</v>
+        <v>10.9000244140625</v>
       </c>
       <c r="K38">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39">
-        <v>388.0499877929688</v>
+        <v>417.07998657226563</v>
       </c>
       <c r="C39">
-        <v>395.0400085449219</v>
+        <v>429.66000366210938</v>
       </c>
       <c r="D39">
-        <v>385.6400146484375</v>
+        <v>413.70999145507813</v>
       </c>
       <c r="E39">
-        <v>394.6900024414062</v>
+        <v>429.05999755859381</v>
       </c>
       <c r="F39">
-        <v>394.6900024414062</v>
+        <v>425.46682739257813</v>
       </c>
       <c r="G39">
-        <v>141455800</v>
+        <v>144247900</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="J39">
-        <v>9.399993896484375</v>
+        <v>15.95001220703125</v>
       </c>
       <c r="K39">
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B40">
-        <v>395.5899963378906</v>
+        <v>424.54998779296881</v>
       </c>
       <c r="C40">
-        <v>399.3500061035156</v>
+        <v>425</v>
       </c>
       <c r="D40">
-        <v>393.6099853515625</v>
+        <v>409.44000244140619</v>
       </c>
       <c r="E40">
-        <v>398.510009765625</v>
+        <v>413.80999755859381</v>
       </c>
       <c r="F40">
-        <v>398.510009765625</v>
+        <v>410.34451293945313</v>
       </c>
       <c r="G40">
-        <v>93839900</v>
+        <v>172929100</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="J40">
-        <v>5.740020751953125</v>
+        <v>15.55999755859375</v>
       </c>
       <c r="K40">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B41">
-        <v>401.1499938964844</v>
+        <v>405.10000610351563</v>
       </c>
       <c r="C41">
-        <v>402.3099975585938</v>
+        <v>406.41000366210938</v>
       </c>
       <c r="D41">
-        <v>394.489990234375</v>
+        <v>396.5</v>
       </c>
       <c r="E41">
-        <v>398.489990234375</v>
+        <v>398.17001342773438</v>
       </c>
       <c r="F41">
-        <v>398.489990234375</v>
+        <v>394.83551025390619</v>
       </c>
       <c r="G41">
-        <v>93194500</v>
+        <v>155586100</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="J41">
-        <v>7.82000732421875</v>
+        <v>9.910003662109375</v>
       </c>
       <c r="K41">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B42">
-        <v>396.7799987792969</v>
+        <v>398.07000732421881</v>
       </c>
       <c r="C42">
-        <v>397.7799987792969</v>
+        <v>404.04000854492188</v>
       </c>
       <c r="D42">
-        <v>394.7900085449219</v>
+        <v>391.95999145507813</v>
       </c>
       <c r="E42">
-        <v>395.4500122070312</v>
+        <v>392.75</v>
       </c>
       <c r="F42">
-        <v>395.4500122070312</v>
+        <v>389.46087646484381</v>
       </c>
       <c r="G42">
-        <v>68508500</v>
+        <v>142361000</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="J42">
-        <v>2.989990234375</v>
+        <v>12.08001708984375</v>
       </c>
       <c r="K42">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B43">
-        <v>397.739990234375</v>
+        <v>399.98001098632813</v>
       </c>
       <c r="C43">
-        <v>397.8099975585938</v>
+        <v>403.97000122070313</v>
       </c>
       <c r="D43">
-        <v>393.0400085449219</v>
+        <v>397.60000610351563</v>
       </c>
       <c r="E43">
-        <v>396.0299987792969</v>
+        <v>400.08999633789063</v>
       </c>
       <c r="F43">
-        <v>396.0299987792969</v>
+        <v>396.73944091796881</v>
       </c>
       <c r="G43">
-        <v>92922500</v>
+        <v>78622400</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J43">
-        <v>4.769989013671875</v>
+        <v>6.3699951171875</v>
       </c>
       <c r="K43">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B44">
-        <v>399.5499877929688</v>
+        <v>403.5</v>
       </c>
       <c r="C44">
-        <v>402.9299926757812</v>
+        <v>403.79998779296881</v>
       </c>
       <c r="D44">
-        <v>399.3099975585938</v>
+        <v>390.54998779296881</v>
       </c>
       <c r="E44">
-        <v>402.4200134277344</v>
+        <v>391.8599853515625</v>
       </c>
       <c r="F44">
-        <v>402.4200134277344</v>
+        <v>388.57830810546881</v>
       </c>
       <c r="G44">
-        <v>68261600</v>
+        <v>117674500</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="J44">
-        <v>3.6199951171875</v>
+        <v>13.25</v>
       </c>
       <c r="K44">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B45">
-        <v>399.0899963378906</v>
+        <v>388.6199951171875</v>
       </c>
       <c r="C45">
-        <v>400.8099975585938</v>
+        <v>394.1400146484375</v>
       </c>
       <c r="D45">
-        <v>395.1099853515625</v>
+        <v>387.1099853515625</v>
       </c>
       <c r="E45">
-        <v>395.9100036621094</v>
+        <v>389.45999145507813</v>
       </c>
       <c r="F45">
-        <v>395.9100036621094</v>
+        <v>386.19845581054688</v>
       </c>
       <c r="G45">
-        <v>67881600</v>
+        <v>98510700</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="J45">
-        <v>5.70001220703125</v>
+        <v>7.030029296875</v>
       </c>
       <c r="K45">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B46">
-        <v>396.0499877929688</v>
+        <v>393.25</v>
       </c>
       <c r="C46">
-        <v>397.2999877929688</v>
+        <v>397.02999877929688</v>
       </c>
       <c r="D46">
-        <v>393.2999877929688</v>
+        <v>380.54000854492188</v>
       </c>
       <c r="E46">
-        <v>395.2300109863281</v>
+        <v>389.6300048828125</v>
       </c>
       <c r="F46">
-        <v>395.2300109863281</v>
+        <v>386.36703491210938</v>
       </c>
       <c r="G46">
-        <v>52310000</v>
+        <v>131432200</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>16.489990234375</v>
       </c>
       <c r="K46">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B47">
-        <v>402.25</v>
+        <v>392.30999755859381</v>
       </c>
       <c r="C47">
-        <v>407.8599853515625</v>
+        <v>399.45001220703119</v>
       </c>
       <c r="D47">
-        <v>402.1400146484375</v>
+        <v>391.8900146484375</v>
       </c>
       <c r="E47">
-        <v>406.9100036621094</v>
+        <v>397.3699951171875</v>
       </c>
       <c r="F47">
-        <v>406.9100036621094</v>
+        <v>394.04220581054688</v>
       </c>
       <c r="G47">
-        <v>85273900</v>
+        <v>91472900</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="J47">
-        <v>5.719970703125</v>
+        <v>7.55999755859375</v>
       </c>
       <c r="K47">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B48">
-        <v>399.4200134277344</v>
+        <v>413.54998779296881</v>
       </c>
       <c r="C48">
-        <v>399.989990234375</v>
+        <v>416.45999145507813</v>
       </c>
       <c r="D48">
-        <v>391.6400146484375</v>
+        <v>410.02999877929688</v>
       </c>
       <c r="E48">
-        <v>393.8299865722656</v>
+        <v>412.92999267578119</v>
       </c>
       <c r="F48">
-        <v>393.8299865722656</v>
+        <v>409.47189331054688</v>
       </c>
       <c r="G48">
-        <v>77972200</v>
+        <v>95937000</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="J48">
-        <v>8.3499755859375</v>
+        <v>6.42999267578125</v>
       </c>
       <c r="K48">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B49">
-        <v>392.9400024414062</v>
+        <v>415.17001342773438</v>
       </c>
       <c r="C49">
-        <v>395.6400146484375</v>
+        <v>416.239990234375</v>
       </c>
       <c r="D49">
-        <v>391.9700012207031</v>
+        <v>406.92999267578119</v>
       </c>
       <c r="E49">
-        <v>393.1600036621094</v>
+        <v>409.58999633789063</v>
       </c>
       <c r="F49">
-        <v>393.1600036621094</v>
+        <v>406.15988159179688</v>
       </c>
       <c r="G49">
-        <v>65927900</v>
+        <v>86585800</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="J49">
-        <v>3.670013427734375</v>
+        <v>9.30999755859375</v>
       </c>
       <c r="K49">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B50">
+        <v>409.42001342773438</v>
+      </c>
+      <c r="C50">
+        <v>417.44000244140619</v>
+      </c>
+      <c r="D50">
+        <v>407.04000854492188</v>
+      </c>
+      <c r="E50">
+        <v>417.3900146484375</v>
+      </c>
+      <c r="F50">
+        <v>413.89456176757813</v>
+      </c>
+      <c r="G50">
+        <v>79609600</v>
+      </c>
+      <c r="H50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I50" t="s">
+        <v>273</v>
+      </c>
+      <c r="J50">
+        <v>10.39999389648438</v>
+      </c>
+      <c r="K50">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>409.33999633789063</v>
+      </c>
+      <c r="C51">
+        <v>411.739990234375</v>
+      </c>
+      <c r="D51">
+        <v>401.44000244140619</v>
+      </c>
+      <c r="E51">
+        <v>401.44000244140619</v>
+      </c>
+      <c r="F51">
+        <v>398.078125</v>
+      </c>
+      <c r="G51">
+        <v>86289800</v>
+      </c>
+      <c r="H51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" t="s">
+        <v>274</v>
+      </c>
+      <c r="J51">
+        <v>10.29998779296875</v>
+      </c>
+      <c r="K51">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>376.85000610351563</v>
+      </c>
+      <c r="C52">
+        <v>377.94000244140619</v>
+      </c>
+      <c r="D52">
+        <v>370.58999633789063</v>
+      </c>
+      <c r="E52">
+        <v>373.8699951171875</v>
+      </c>
+      <c r="F52">
+        <v>370.739013671875</v>
+      </c>
+      <c r="G52">
+        <v>104011800</v>
+      </c>
+      <c r="H52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J52">
+        <v>7.350006103515625</v>
+      </c>
+      <c r="K52">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>370.510009765625</v>
+      </c>
+      <c r="C53">
+        <v>370.94000244140619</v>
+      </c>
+      <c r="D53">
+        <v>364.07998657226563</v>
+      </c>
+      <c r="E53">
+        <v>366.64999389648438</v>
+      </c>
+      <c r="F53">
+        <v>363.5794677734375</v>
+      </c>
+      <c r="G53">
+        <v>134473300</v>
+      </c>
+      <c r="H53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53">
+        <v>6.860015869140625</v>
+      </c>
+      <c r="K53">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>365.510009765625</v>
+      </c>
+      <c r="C54">
+        <v>369.3800048828125</v>
+      </c>
+      <c r="D54">
+        <v>362.17001342773438</v>
+      </c>
+      <c r="E54">
+        <v>365.8599853515625</v>
+      </c>
+      <c r="F54">
+        <v>364.36325073242188</v>
+      </c>
+      <c r="G54">
+        <v>111113900</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54">
+        <v>7.209991455078125</v>
+      </c>
+      <c r="K54">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>371.8900146484375</v>
+      </c>
+      <c r="C55">
+        <v>376.52999877929688</v>
+      </c>
+      <c r="D55">
+        <v>371.80999755859381</v>
+      </c>
+      <c r="E55">
+        <v>375.07000732421881</v>
+      </c>
+      <c r="F55">
+        <v>373.53558349609381</v>
+      </c>
+      <c r="G55">
+        <v>76811900</v>
+      </c>
+      <c r="H55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I55" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55">
+        <v>4.720001220703125</v>
+      </c>
+      <c r="K55">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>370.6199951171875</v>
+      </c>
+      <c r="C56">
+        <v>378.72000122070313</v>
+      </c>
+      <c r="D56">
+        <v>370.17999267578119</v>
+      </c>
+      <c r="E56">
+        <v>374.3900146484375</v>
+      </c>
+      <c r="F56">
+        <v>372.85836791992188</v>
+      </c>
+      <c r="G56">
+        <v>90059400</v>
+      </c>
+      <c r="H56" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J56">
+        <v>8.540008544921875</v>
+      </c>
+      <c r="K56">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>390.23001098632813</v>
+      </c>
+      <c r="C57">
+        <v>393.16000366210938</v>
+      </c>
+      <c r="D57">
+        <v>380.52999877929688</v>
+      </c>
+      <c r="E57">
+        <v>380.64999389648438</v>
+      </c>
+      <c r="F57">
+        <v>379.09274291992188</v>
+      </c>
+      <c r="G57">
+        <v>86548900</v>
+      </c>
+      <c r="H57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" t="s">
+        <v>276</v>
+      </c>
+      <c r="J57">
+        <v>12.6300048828125</v>
+      </c>
+      <c r="K57">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>376.239990234375</v>
+      </c>
+      <c r="C58">
+        <v>380.66000366210938</v>
+      </c>
+      <c r="D58">
+        <v>372.55999755859381</v>
+      </c>
+      <c r="E58">
+        <v>377.25</v>
+      </c>
+      <c r="F58">
+        <v>375.7066650390625</v>
+      </c>
+      <c r="G58">
+        <v>112508300</v>
+      </c>
+      <c r="H58" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>272</v>
+      </c>
+      <c r="J58">
+        <v>8.100006103515625</v>
+      </c>
+      <c r="K58">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>385.1199951171875</v>
+      </c>
+      <c r="C59">
+        <v>389.82998657226563</v>
+      </c>
+      <c r="D59">
+        <v>383.26998901367188</v>
+      </c>
+      <c r="E59">
+        <v>388.989990234375</v>
+      </c>
+      <c r="F59">
+        <v>387.39862060546881</v>
+      </c>
+      <c r="G59">
+        <v>64525900</v>
+      </c>
+      <c r="H59" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59">
+        <v>6.55999755859375</v>
+      </c>
+      <c r="K59">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>385.85000610351563</v>
+      </c>
+      <c r="C60">
+        <v>386.8699951171875</v>
+      </c>
+      <c r="D60">
+        <v>383.5</v>
+      </c>
+      <c r="E60">
+        <v>384.23001098632813</v>
+      </c>
+      <c r="F60">
+        <v>382.65811157226563</v>
+      </c>
+      <c r="G60">
+        <v>58366900</v>
+      </c>
+      <c r="H60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" t="s">
+        <v>271</v>
+      </c>
+      <c r="J60">
+        <v>3.3699951171875</v>
+      </c>
+      <c r="K60">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>383.64999389648438</v>
+      </c>
+      <c r="C61">
+        <v>386.16000366210938</v>
+      </c>
+      <c r="D61">
+        <v>378.989990234375</v>
+      </c>
+      <c r="E61">
+        <v>380.82998657226563</v>
+      </c>
+      <c r="F61">
+        <v>379.27200317382813</v>
+      </c>
+      <c r="G61">
+        <v>62219200</v>
+      </c>
+      <c r="H61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I61" t="s">
+        <v>271</v>
+      </c>
+      <c r="J61">
+        <v>7.170013427734375</v>
+      </c>
+      <c r="K61">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>375.10000610351563</v>
+      </c>
+      <c r="C62">
+        <v>381.92001342773438</v>
+      </c>
+      <c r="D62">
+        <v>374.66000366210938</v>
+      </c>
+      <c r="E62">
+        <v>378.82998657226563</v>
+      </c>
+      <c r="F62">
+        <v>377.28018188476563</v>
+      </c>
+      <c r="G62">
+        <v>84224600</v>
+      </c>
+      <c r="H62" t="s">
+        <v>204</v>
+      </c>
+      <c r="I62" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62">
+        <v>7.260009765625</v>
+      </c>
+      <c r="K62">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63">
+        <v>373.6099853515625</v>
+      </c>
+      <c r="C63">
+        <v>379.04998779296881</v>
+      </c>
+      <c r="D63">
+        <v>371.04000854492188</v>
+      </c>
+      <c r="E63">
+        <v>377.91000366210938</v>
+      </c>
+      <c r="F63">
+        <v>376.36395263671881</v>
+      </c>
+      <c r="G63">
+        <v>89704800</v>
+      </c>
+      <c r="H63" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63">
+        <v>8.009979248046875</v>
+      </c>
+      <c r="K63">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>382.54998779296881</v>
+      </c>
+      <c r="C64">
+        <v>385.25</v>
+      </c>
+      <c r="D64">
+        <v>380.54000854492188</v>
+      </c>
+      <c r="E64">
+        <v>385.1300048828125</v>
+      </c>
+      <c r="F64">
+        <v>383.554443359375</v>
+      </c>
+      <c r="G64">
+        <v>79060400</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
+        <v>272</v>
+      </c>
+      <c r="J64">
+        <v>4.709991455078125</v>
+      </c>
+      <c r="K64">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>392.47000122070313</v>
+      </c>
+      <c r="C65">
+        <v>396.260009765625</v>
+      </c>
+      <c r="D65">
+        <v>391.02999877929688</v>
+      </c>
+      <c r="E65">
+        <v>394.76998901367188</v>
+      </c>
+      <c r="F65">
+        <v>393.15496826171881</v>
+      </c>
+      <c r="G65">
+        <v>71843800</v>
+      </c>
+      <c r="H65" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65">
+        <v>5.230010986328125</v>
+      </c>
+      <c r="K65">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>394.16000366210938</v>
+      </c>
+      <c r="C66">
+        <v>398.83999633789063</v>
+      </c>
+      <c r="D66">
+        <v>391.6300048828125</v>
+      </c>
+      <c r="E66">
+        <v>398.79000854492188</v>
+      </c>
+      <c r="F66">
+        <v>397.15853881835938</v>
+      </c>
+      <c r="G66">
+        <v>64903900</v>
+      </c>
+      <c r="H66" t="s">
+        <v>208</v>
+      </c>
+      <c r="I66" t="s">
+        <v>273</v>
+      </c>
+      <c r="J66">
+        <v>7.209991455078125</v>
+      </c>
+      <c r="K66">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>393.83999633789063</v>
+      </c>
+      <c r="C67">
+        <v>394.05999755859381</v>
+      </c>
+      <c r="D67">
+        <v>389.95001220703119</v>
+      </c>
+      <c r="E67">
+        <v>390.8900146484375</v>
+      </c>
+      <c r="F67">
+        <v>389.29086303710938</v>
+      </c>
+      <c r="G67">
+        <v>52946400</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" t="s">
+        <v>271</v>
+      </c>
+      <c r="J67">
+        <v>4.1099853515625</v>
+      </c>
+      <c r="K67">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>394.3599853515625</v>
+      </c>
+      <c r="C68">
+        <v>402.8800048828125</v>
+      </c>
+      <c r="D68">
+        <v>394.04998779296881</v>
+      </c>
+      <c r="E68">
+        <v>401.04000854492188</v>
+      </c>
+      <c r="F68">
+        <v>399.39935302734381</v>
+      </c>
+      <c r="G68">
+        <v>82342100</v>
+      </c>
+      <c r="H68" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" t="s">
+        <v>273</v>
+      </c>
+      <c r="J68">
+        <v>8.83001708984375</v>
+      </c>
+      <c r="K68">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69">
+        <v>407.57998657226563</v>
+      </c>
+      <c r="C69">
+        <v>413.02999877929688</v>
+      </c>
+      <c r="D69">
+        <v>406.76998901367188</v>
+      </c>
+      <c r="E69">
+        <v>411.989990234375</v>
+      </c>
+      <c r="F69">
+        <v>410.30453491210938</v>
+      </c>
+      <c r="G69">
+        <v>87003700</v>
+      </c>
+      <c r="H69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I69" t="s">
+        <v>273</v>
+      </c>
+      <c r="J69">
+        <v>6.260009765625</v>
+      </c>
+      <c r="K69">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70">
+        <v>409.1199951171875</v>
+      </c>
+      <c r="C70">
+        <v>413</v>
+      </c>
+      <c r="D70">
+        <v>406.82000732421881</v>
+      </c>
+      <c r="E70">
+        <v>408.05999755859381</v>
+      </c>
+      <c r="F70">
+        <v>406.390625</v>
+      </c>
+      <c r="G70">
+        <v>63435400</v>
+      </c>
+      <c r="H70" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" t="s">
+        <v>271</v>
+      </c>
+      <c r="J70">
+        <v>6.17999267578125</v>
+      </c>
+      <c r="K70">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71">
+        <v>409.66000366210938</v>
+      </c>
+      <c r="C71">
+        <v>414.14999389648438</v>
+      </c>
+      <c r="D71">
+        <v>409.60000610351563</v>
+      </c>
+      <c r="E71">
+        <v>413.47000122070313</v>
+      </c>
+      <c r="F71">
+        <v>411.77847290039063</v>
+      </c>
+      <c r="G71">
+        <v>56814900</v>
+      </c>
+      <c r="H71" t="s">
+        <v>213</v>
+      </c>
+      <c r="I71" t="s">
+        <v>272</v>
+      </c>
+      <c r="J71">
+        <v>4.54998779296875</v>
+      </c>
+      <c r="K71">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
+        <v>412.22000122070313</v>
+      </c>
+      <c r="C72">
+        <v>412.75</v>
+      </c>
+      <c r="D72">
+        <v>410.22000122070313</v>
+      </c>
+      <c r="E72">
+        <v>411.35000610351563</v>
+      </c>
+      <c r="F72">
+        <v>409.66717529296881</v>
+      </c>
+      <c r="G72">
+        <v>44931800</v>
+      </c>
+      <c r="H72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" t="s">
+        <v>271</v>
+      </c>
+      <c r="J72">
+        <v>2.529998779296875</v>
+      </c>
+      <c r="K72">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73">
+        <v>422.989990234375</v>
+      </c>
+      <c r="C73">
+        <v>424.95001220703119</v>
+      </c>
+      <c r="D73">
+        <v>419.20999145507813</v>
+      </c>
+      <c r="E73">
+        <v>419.989990234375</v>
+      </c>
+      <c r="F73">
+        <v>418.27178955078119</v>
+      </c>
+      <c r="G73">
+        <v>59489700</v>
+      </c>
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>271</v>
+      </c>
+      <c r="J73">
+        <v>5.740020751953125</v>
+      </c>
+      <c r="K73">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74">
+        <v>427.73001098632813</v>
+      </c>
+      <c r="C74">
+        <v>431.73001098632813</v>
+      </c>
+      <c r="D74">
+        <v>426.8800048828125</v>
+      </c>
+      <c r="E74">
+        <v>429.70001220703119</v>
+      </c>
+      <c r="F74">
+        <v>427.94210815429688</v>
+      </c>
+      <c r="G74">
+        <v>59289000</v>
+      </c>
+      <c r="H74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I74" t="s">
+        <v>272</v>
+      </c>
+      <c r="J74">
+        <v>4.850006103515625</v>
+      </c>
+      <c r="K74">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>425.91000366210938</v>
+      </c>
+      <c r="C75">
+        <v>429.5</v>
+      </c>
+      <c r="D75">
+        <v>424.54000854492188</v>
+      </c>
+      <c r="E75">
+        <v>426.64999389648438</v>
+      </c>
+      <c r="F75">
+        <v>424.90457153320313</v>
+      </c>
+      <c r="G75">
+        <v>63563400</v>
+      </c>
+      <c r="H75" t="s">
+        <v>216</v>
+      </c>
+      <c r="I75" t="s">
+        <v>272</v>
+      </c>
+      <c r="J75">
+        <v>4.959991455078125</v>
+      </c>
+      <c r="K75">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76">
+        <v>424.98001098632813</v>
+      </c>
+      <c r="C76">
+        <v>425.260009765625</v>
+      </c>
+      <c r="D76">
+        <v>421.22000122070313</v>
+      </c>
+      <c r="E76">
+        <v>422.1400146484375</v>
+      </c>
+      <c r="F76">
+        <v>420.41302490234381</v>
+      </c>
+      <c r="G76">
+        <v>68016900</v>
+      </c>
+      <c r="H76" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" t="s">
+        <v>271</v>
+      </c>
+      <c r="J76">
+        <v>4.040008544921875</v>
+      </c>
+      <c r="K76">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77">
+        <v>412.89999389648438</v>
+      </c>
+      <c r="C77">
+        <v>415.42001342773438</v>
+      </c>
+      <c r="D77">
+        <v>411.76998901367188</v>
+      </c>
+      <c r="E77">
+        <v>412.35000610351563</v>
+      </c>
+      <c r="F77">
+        <v>410.6630859375</v>
+      </c>
+      <c r="G77">
+        <v>49105200</v>
+      </c>
+      <c r="H77" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77">
+        <v>3.6500244140625</v>
+      </c>
+      <c r="K77">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78">
+        <v>412.1099853515625</v>
+      </c>
+      <c r="C78">
+        <v>415.1099853515625</v>
+      </c>
+      <c r="D78">
+        <v>411.3900146484375</v>
+      </c>
+      <c r="E78">
+        <v>413.67001342773438</v>
+      </c>
+      <c r="F78">
+        <v>411.97769165039063</v>
+      </c>
+      <c r="G78">
+        <v>49177800</v>
+      </c>
+      <c r="H78" t="s">
+        <v>219</v>
+      </c>
+      <c r="I78" t="s">
+        <v>272</v>
+      </c>
+      <c r="J78">
+        <v>3.719970703125</v>
+      </c>
+      <c r="K78">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>419.3900146484375</v>
+      </c>
+      <c r="C79">
+        <v>419.95999145507813</v>
+      </c>
+      <c r="D79">
+        <v>405.25</v>
+      </c>
+      <c r="E79">
+        <v>405.30999755859381</v>
+      </c>
+      <c r="F79">
+        <v>403.65185546875</v>
+      </c>
+      <c r="G79">
+        <v>103087000</v>
+      </c>
+      <c r="H79" t="s">
+        <v>220</v>
+      </c>
+      <c r="I79" t="s">
+        <v>277</v>
+      </c>
+      <c r="J79">
+        <v>14.70999145507812</v>
+      </c>
+      <c r="K79">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80">
+        <v>402.20001220703119</v>
+      </c>
+      <c r="C80">
+        <v>405.83999633789063</v>
+      </c>
+      <c r="D80">
+        <v>401.20001220703119</v>
+      </c>
+      <c r="E80">
+        <v>402.6300048828125</v>
+      </c>
+      <c r="F80">
+        <v>400.98284912109381</v>
+      </c>
+      <c r="G80">
+        <v>65370800</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" t="s">
+        <v>272</v>
+      </c>
+      <c r="J80">
+        <v>4.639984130859375</v>
+      </c>
+      <c r="K80">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>403.85000610351563</v>
+      </c>
+      <c r="C81">
+        <v>404.10000610351563</v>
+      </c>
+      <c r="D81">
+        <v>396</v>
+      </c>
+      <c r="E81">
+        <v>398.20999145507813</v>
+      </c>
+      <c r="F81">
+        <v>396.58090209960938</v>
+      </c>
+      <c r="G81">
+        <v>85652400</v>
+      </c>
+      <c r="H81" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" t="s">
+        <v>274</v>
+      </c>
+      <c r="J81">
+        <v>8.100006103515625</v>
+      </c>
+      <c r="K81">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>399.92999267578119</v>
+      </c>
+      <c r="C82">
+        <v>401.239990234375</v>
+      </c>
+      <c r="D82">
+        <v>395.04000854492188</v>
+      </c>
+      <c r="E82">
+        <v>395.17999267578119</v>
+      </c>
+      <c r="F82">
+        <v>393.56329345703119</v>
+      </c>
+      <c r="G82">
+        <v>76029700</v>
+      </c>
+      <c r="H82" t="s">
+        <v>222</v>
+      </c>
+      <c r="I82" t="s">
+        <v>274</v>
+      </c>
+      <c r="J82">
+        <v>6.199981689453125</v>
+      </c>
+      <c r="K82">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>392.8900146484375</v>
+      </c>
+      <c r="C83">
+        <v>396.77999877929688</v>
+      </c>
+      <c r="D83">
+        <v>390.04000854492188</v>
+      </c>
+      <c r="E83">
+        <v>396.42001342773438</v>
+      </c>
+      <c r="F83">
+        <v>394.79824829101563</v>
+      </c>
+      <c r="G83">
+        <v>78740100</v>
+      </c>
+      <c r="H83" t="s">
+        <v>223</v>
+      </c>
+      <c r="I83" t="s">
+        <v>272</v>
+      </c>
+      <c r="J83">
+        <v>6.739990234375</v>
+      </c>
+      <c r="K83">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84">
+        <v>400.27999877929688</v>
+      </c>
+      <c r="C84">
+        <v>401.55999755859381</v>
+      </c>
+      <c r="D84">
+        <v>390.32998657226563</v>
+      </c>
+      <c r="E84">
+        <v>392.239990234375</v>
+      </c>
+      <c r="F84">
+        <v>390.63531494140619</v>
+      </c>
+      <c r="G84">
+        <v>99632100</v>
+      </c>
+      <c r="H84" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" t="s">
+        <v>276</v>
+      </c>
+      <c r="J84">
+        <v>11.23001098632812</v>
+      </c>
+      <c r="K84">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>393.1300048828125</v>
+      </c>
+      <c r="C85">
+        <v>394.1199951171875</v>
+      </c>
+      <c r="D85">
+        <v>388.42001342773438</v>
+      </c>
+      <c r="E85">
+        <v>390.760009765625</v>
+      </c>
+      <c r="F85">
+        <v>389.16140747070313</v>
+      </c>
+      <c r="G85">
+        <v>76637400</v>
+      </c>
+      <c r="H85" t="s">
+        <v>225</v>
+      </c>
+      <c r="I85" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85">
+        <v>5.699981689453125</v>
+      </c>
+      <c r="K85">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86">
+        <v>390.42999267578119</v>
+      </c>
+      <c r="C86">
+        <v>398.58999633789063</v>
+      </c>
+      <c r="D86">
+        <v>390.20001220703119</v>
+      </c>
+      <c r="E86">
+        <v>397.77999877929688</v>
+      </c>
+      <c r="F86">
+        <v>396.15267944335938</v>
+      </c>
+      <c r="G86">
+        <v>70964200</v>
+      </c>
+      <c r="H86" t="s">
+        <v>226</v>
+      </c>
+      <c r="I86" t="s">
+        <v>273</v>
+      </c>
+      <c r="J86">
+        <v>8.389984130859375</v>
+      </c>
+      <c r="K86">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87">
+        <v>395.3900146484375</v>
+      </c>
+      <c r="C87">
+        <v>400.8599853515625</v>
+      </c>
+      <c r="D87">
+        <v>394.1199951171875</v>
+      </c>
+      <c r="E87">
+        <v>400.3800048828125</v>
+      </c>
+      <c r="F87">
+        <v>398.74203491210938</v>
+      </c>
+      <c r="G87">
+        <v>80821700</v>
+      </c>
+      <c r="H87" t="s">
+        <v>227</v>
+      </c>
+      <c r="I87" t="s">
+        <v>273</v>
+      </c>
+      <c r="J87">
+        <v>6.739990234375</v>
+      </c>
+      <c r="K87">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88">
+        <v>402.739990234375</v>
+      </c>
+      <c r="C88">
+        <v>407.510009765625</v>
+      </c>
+      <c r="D88">
+        <v>402.45999145507813</v>
+      </c>
+      <c r="E88">
+        <v>406.60000610351563</v>
+      </c>
+      <c r="F88">
+        <v>404.93658447265619</v>
+      </c>
+      <c r="G88">
+        <v>76706900</v>
+      </c>
+      <c r="H88" t="s">
+        <v>228</v>
+      </c>
+      <c r="I88" t="s">
+        <v>272</v>
+      </c>
+      <c r="J88">
+        <v>5.050018310546875</v>
+      </c>
+      <c r="K88">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89">
+        <v>401.82998657226563</v>
+      </c>
+      <c r="C89">
+        <v>403.10000610351563</v>
+      </c>
+      <c r="D89">
+        <v>391.92001342773438</v>
+      </c>
+      <c r="E89">
+        <v>393.10000610351563</v>
+      </c>
+      <c r="F89">
+        <v>391.4918212890625</v>
+      </c>
+      <c r="G89">
+        <v>122947100</v>
+      </c>
+      <c r="H89" t="s">
+        <v>229</v>
+      </c>
+      <c r="I89" t="s">
+        <v>276</v>
+      </c>
+      <c r="J89">
+        <v>11.17999267578125</v>
+      </c>
+      <c r="K89">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>394.47000122070313</v>
+      </c>
+      <c r="C90">
+        <v>396.20001220703119</v>
+      </c>
+      <c r="D90">
+        <v>391.1199951171875</v>
+      </c>
+      <c r="E90">
+        <v>394.60000610351563</v>
+      </c>
+      <c r="F90">
+        <v>392.98568725585938</v>
+      </c>
+      <c r="G90">
+        <v>85023700</v>
+      </c>
+      <c r="H90" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" t="s">
+        <v>272</v>
+      </c>
+      <c r="J90">
+        <v>5.08001708984375</v>
+      </c>
+      <c r="K90">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91">
+        <v>392.95999145507813</v>
+      </c>
+      <c r="C91">
+        <v>395.95999145507813</v>
+      </c>
+      <c r="D91">
+        <v>388.77999877929688</v>
+      </c>
+      <c r="E91">
+        <v>390.1199951171875</v>
+      </c>
+      <c r="F91">
+        <v>388.52401733398438</v>
+      </c>
+      <c r="G91">
+        <v>87633800</v>
+      </c>
+      <c r="H91" t="s">
+        <v>230</v>
+      </c>
+      <c r="I91" t="s">
+        <v>271</v>
+      </c>
+      <c r="J91">
+        <v>7.17999267578125</v>
+      </c>
+      <c r="K91">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92">
+        <v>384.1400146484375</v>
+      </c>
+      <c r="C92">
+        <v>386.25</v>
+      </c>
+      <c r="D92">
+        <v>382.1099853515625</v>
+      </c>
+      <c r="E92">
+        <v>385.55999755859381</v>
+      </c>
+      <c r="F92">
+        <v>385.55999755859381</v>
+      </c>
+      <c r="G92">
+        <v>103084800</v>
+      </c>
+      <c r="H92" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92">
+        <v>4.1400146484375</v>
+      </c>
+      <c r="K92">
+        <v>-231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
+        <v>382.260009765625</v>
+      </c>
+      <c r="C93">
+        <v>388.54998779296881</v>
+      </c>
+      <c r="D93">
+        <v>382.17999267578119</v>
+      </c>
+      <c r="E93">
+        <v>388.54998779296881</v>
+      </c>
+      <c r="F93">
+        <v>388.54998779296881</v>
+      </c>
+      <c r="G93">
+        <v>73278500</v>
+      </c>
+      <c r="H93" t="s">
+        <v>232</v>
+      </c>
+      <c r="I93" t="s">
+        <v>273</v>
+      </c>
+      <c r="J93">
+        <v>6.3699951171875</v>
+      </c>
+      <c r="K93">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94">
+        <v>385.05999755859381</v>
+      </c>
+      <c r="C94">
+        <v>386.1199951171875</v>
+      </c>
+      <c r="D94">
+        <v>381.20001220703119</v>
+      </c>
+      <c r="E94">
+        <v>384.08999633789063</v>
+      </c>
+      <c r="F94">
+        <v>384.08999633789063</v>
+      </c>
+      <c r="G94">
+        <v>77274900</v>
+      </c>
+      <c r="H94" t="s">
+        <v>233</v>
+      </c>
+      <c r="I94" t="s">
+        <v>271</v>
+      </c>
+      <c r="J94">
+        <v>4.91998291015625</v>
+      </c>
+      <c r="K94">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
+        <v>386.1099853515625</v>
+      </c>
+      <c r="C95">
+        <v>389.30999755859381</v>
+      </c>
+      <c r="D95">
+        <v>377.3800048828125</v>
+      </c>
+      <c r="E95">
+        <v>377.3900146484375</v>
+      </c>
+      <c r="F95">
+        <v>377.3900146484375</v>
+      </c>
+      <c r="G95">
+        <v>106746600</v>
+      </c>
+      <c r="H95" t="s">
+        <v>234</v>
+      </c>
+      <c r="I95" t="s">
+        <v>276</v>
+      </c>
+      <c r="J95">
+        <v>11.92999267578125</v>
+      </c>
+      <c r="K95">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>376.57998657226563</v>
+      </c>
+      <c r="C96">
+        <v>378.29998779296881</v>
+      </c>
+      <c r="D96">
+        <v>373.44000244140619</v>
+      </c>
+      <c r="E96">
+        <v>374.22000122070313</v>
+      </c>
+      <c r="F96">
+        <v>374.22000122070313</v>
+      </c>
+      <c r="G96">
+        <v>89472600</v>
+      </c>
+      <c r="H96" t="s">
+        <v>235</v>
+      </c>
+      <c r="I96" t="s">
+        <v>271</v>
+      </c>
+      <c r="J96">
+        <v>4.8599853515625</v>
+      </c>
+      <c r="K96">
+        <v>-286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <v>366.41000366210938</v>
+      </c>
+      <c r="C97">
+        <v>370.20999145507813</v>
+      </c>
+      <c r="D97">
+        <v>363.02999877929688</v>
+      </c>
+      <c r="E97">
+        <v>364.30999755859381</v>
+      </c>
+      <c r="F97">
+        <v>364.30999755859381</v>
+      </c>
+      <c r="G97">
+        <v>92581200</v>
+      </c>
+      <c r="H97" t="s">
+        <v>236</v>
+      </c>
+      <c r="I97" t="s">
+        <v>271</v>
+      </c>
+      <c r="J97">
+        <v>7.17999267578125</v>
+      </c>
+      <c r="K97">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98">
+        <v>368.01998901367188</v>
+      </c>
+      <c r="C98">
+        <v>370.39999389648438</v>
+      </c>
+      <c r="D98">
+        <v>360.8699951171875</v>
+      </c>
+      <c r="E98">
+        <v>363.3800048828125</v>
+      </c>
+      <c r="F98">
+        <v>363.3800048828125</v>
+      </c>
+      <c r="G98">
+        <v>108294100</v>
+      </c>
+      <c r="H98" t="s">
+        <v>237</v>
+      </c>
+      <c r="I98" t="s">
+        <v>274</v>
+      </c>
+      <c r="J98">
+        <v>9.529998779296875</v>
+      </c>
+      <c r="K98">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99">
+        <v>364.3800048828125</v>
+      </c>
+      <c r="C99">
+        <v>372.29998779296881</v>
+      </c>
+      <c r="D99">
+        <v>362.60000610351563</v>
+      </c>
+      <c r="E99">
+        <v>370.52999877929688</v>
+      </c>
+      <c r="F99">
+        <v>370.52999877929688</v>
+      </c>
+      <c r="G99">
+        <v>110802200</v>
+      </c>
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
+      <c r="I99" t="s">
+        <v>273</v>
+      </c>
+      <c r="J99">
+        <v>9.699981689453125</v>
+      </c>
+      <c r="K99">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100">
+        <v>366.80999755859381</v>
+      </c>
+      <c r="C100">
+        <v>367.1099853515625</v>
+      </c>
+      <c r="D100">
+        <v>359.70001220703119</v>
+      </c>
+      <c r="E100">
+        <v>362.79000854492188</v>
+      </c>
+      <c r="F100">
+        <v>362.79000854492188</v>
+      </c>
+      <c r="G100">
+        <v>112952300</v>
+      </c>
+      <c r="H100" t="s">
+        <v>238</v>
+      </c>
+      <c r="I100" t="s">
+        <v>274</v>
+      </c>
+      <c r="J100">
+        <v>7.40997314453125</v>
+      </c>
+      <c r="K100">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101">
+        <v>361.79998779296881</v>
+      </c>
+      <c r="C101">
+        <v>365.91000366210938</v>
+      </c>
+      <c r="D101">
+        <v>357.04000854492188</v>
+      </c>
+      <c r="E101">
+        <v>357.17999267578119</v>
+      </c>
+      <c r="F101">
+        <v>357.17999267578119</v>
+      </c>
+      <c r="G101">
+        <v>153711200</v>
+      </c>
+      <c r="H101" t="s">
+        <v>239</v>
+      </c>
+      <c r="I101" t="s">
+        <v>274</v>
+      </c>
+      <c r="J101">
+        <v>8.8699951171875</v>
+      </c>
+      <c r="K101">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102">
+        <v>361.07998657226563</v>
+      </c>
+      <c r="C102">
+        <v>368.54998779296881</v>
+      </c>
+      <c r="D102">
+        <v>359.20999145507813</v>
+      </c>
+      <c r="E102">
+        <v>366.6099853515625</v>
+      </c>
+      <c r="F102">
+        <v>366.6099853515625</v>
+      </c>
+      <c r="G102">
+        <v>89756500</v>
+      </c>
+      <c r="H102" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" t="s">
+        <v>273</v>
+      </c>
+      <c r="J102">
+        <v>9.339996337890625</v>
+      </c>
+      <c r="K102">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103">
+        <v>372.39999389648438</v>
+      </c>
+      <c r="C103">
+        <v>378</v>
+      </c>
+      <c r="D103">
+        <v>366.57000732421881</v>
+      </c>
+      <c r="E103">
+        <v>377.97000122070313</v>
+      </c>
+      <c r="F103">
+        <v>377.97000122070313</v>
+      </c>
+      <c r="G103">
+        <v>103602800</v>
+      </c>
+      <c r="H103" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" t="s">
+        <v>273</v>
+      </c>
+      <c r="J103">
+        <v>11.42999267578125</v>
+      </c>
+      <c r="K103">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104">
+        <v>375.6199951171875</v>
+      </c>
+      <c r="C104">
+        <v>378.72000122070313</v>
+      </c>
+      <c r="D104">
+        <v>372.67999267578119</v>
+      </c>
+      <c r="E104">
+        <v>373.20001220703119</v>
+      </c>
+      <c r="F104">
+        <v>373.20001220703119</v>
+      </c>
+      <c r="G104">
+        <v>82333500</v>
+      </c>
+      <c r="H104" t="s">
+        <v>242</v>
+      </c>
+      <c r="I104" t="s">
+        <v>271</v>
+      </c>
+      <c r="J104">
+        <v>6.040008544921875</v>
+      </c>
+      <c r="K104">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105">
+        <v>368.97000122070313</v>
+      </c>
+      <c r="C105">
+        <v>373.29000854492188</v>
+      </c>
+      <c r="D105">
+        <v>360.94000244140619</v>
+      </c>
+      <c r="E105">
+        <v>362.79000854492188</v>
+      </c>
+      <c r="F105">
+        <v>362.79000854492188</v>
+      </c>
+      <c r="G105">
+        <v>107789500</v>
+      </c>
+      <c r="H105" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105" t="s">
+        <v>274</v>
+      </c>
+      <c r="J105">
+        <v>12.35000610351562</v>
+      </c>
+      <c r="K105">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106">
+        <v>363.95999145507813</v>
+      </c>
+      <c r="C106">
+        <v>364.20999145507813</v>
+      </c>
+      <c r="D106">
+        <v>357.67001342773438</v>
+      </c>
+      <c r="E106">
+        <v>360.01998901367188</v>
+      </c>
+      <c r="F106">
+        <v>360.01998901367188</v>
+      </c>
+      <c r="G106">
+        <v>76042800</v>
+      </c>
+      <c r="H106" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" t="s">
+        <v>274</v>
+      </c>
+      <c r="J106">
+        <v>6.53997802734375</v>
+      </c>
+      <c r="K106">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107">
+        <v>358.239990234375</v>
+      </c>
+      <c r="C107">
+        <v>363.02999877929688</v>
+      </c>
+      <c r="D107">
+        <v>355.70999145507813</v>
+      </c>
+      <c r="E107">
+        <v>357.739990234375</v>
+      </c>
+      <c r="F107">
+        <v>357.739990234375</v>
+      </c>
+      <c r="G107">
+        <v>92482800</v>
+      </c>
+      <c r="H107" t="s">
+        <v>244</v>
+      </c>
+      <c r="I107" t="s">
+        <v>271</v>
+      </c>
+      <c r="J107">
+        <v>7.32000732421875</v>
+      </c>
+      <c r="K107">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108">
+        <v>349.20999145507813</v>
+      </c>
+      <c r="C108">
+        <v>367.510009765625</v>
+      </c>
+      <c r="D108">
+        <v>348.1099853515625</v>
+      </c>
+      <c r="E108">
+        <v>365.97000122070313</v>
+      </c>
+      <c r="F108">
+        <v>365.97000122070313</v>
+      </c>
+      <c r="G108">
+        <v>147254500</v>
+      </c>
+      <c r="H108" t="s">
+        <v>245</v>
+      </c>
+      <c r="I108" t="s">
+        <v>278</v>
+      </c>
+      <c r="J108">
+        <v>19.4000244140625</v>
+      </c>
+      <c r="K108">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109">
+        <v>368.54998779296881</v>
+      </c>
+      <c r="C109">
+        <v>370.260009765625</v>
+      </c>
+      <c r="D109">
+        <v>356.95999145507813</v>
+      </c>
+      <c r="E109">
+        <v>357.6300048828125</v>
+      </c>
+      <c r="F109">
+        <v>357.6300048828125</v>
+      </c>
+      <c r="G109">
+        <v>123737000</v>
+      </c>
+      <c r="H109" t="s">
+        <v>246</v>
+      </c>
+      <c r="I109" t="s">
+        <v>276</v>
+      </c>
+      <c r="J109">
+        <v>13.30001831054688</v>
+      </c>
+      <c r="K109">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110">
+        <v>364.010009765625</v>
+      </c>
+      <c r="C110">
+        <v>367.98001098632813</v>
+      </c>
+      <c r="D110">
+        <v>357.27999877929688</v>
+      </c>
+      <c r="E110">
+        <v>366.82000732421881</v>
+      </c>
+      <c r="F110">
+        <v>366.82000732421881</v>
+      </c>
+      <c r="G110">
+        <v>93168200</v>
+      </c>
+      <c r="H110" t="s">
+        <v>158</v>
+      </c>
+      <c r="I110" t="s">
+        <v>272</v>
+      </c>
+      <c r="J110">
+        <v>10.70001220703125</v>
+      </c>
+      <c r="K110">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111">
+        <v>368.989990234375</v>
+      </c>
+      <c r="C111">
+        <v>371.85000610351563</v>
+      </c>
+      <c r="D111">
+        <v>365.54998779296881</v>
+      </c>
+      <c r="E111">
+        <v>368.5</v>
+      </c>
+      <c r="F111">
+        <v>368.5</v>
+      </c>
+      <c r="G111">
+        <v>79746900</v>
+      </c>
+      <c r="H111" t="s">
+        <v>218</v>
+      </c>
+      <c r="I111" t="s">
+        <v>271</v>
+      </c>
+      <c r="J111">
+        <v>6.300018310546875</v>
+      </c>
+      <c r="K111">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112">
+        <v>365.1199951171875</v>
+      </c>
+      <c r="C112">
+        <v>374.79998779296881</v>
+      </c>
+      <c r="D112">
+        <v>363.54000854492188</v>
+      </c>
+      <c r="E112">
+        <v>374.29000854492188</v>
+      </c>
+      <c r="F112">
+        <v>374.29000854492188</v>
+      </c>
+      <c r="G112">
+        <v>131038400</v>
+      </c>
+      <c r="H112" t="s">
+        <v>247</v>
+      </c>
+      <c r="I112" t="s">
+        <v>275</v>
+      </c>
+      <c r="J112">
+        <v>11.25997924804688</v>
+      </c>
+      <c r="K112">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113">
+        <v>375.8900146484375</v>
+      </c>
+      <c r="C113">
+        <v>380.05999755859381</v>
+      </c>
+      <c r="D113">
+        <v>373.1099853515625</v>
+      </c>
+      <c r="E113">
+        <v>378.8699951171875</v>
+      </c>
+      <c r="F113">
+        <v>378.8699951171875</v>
+      </c>
+      <c r="G113">
+        <v>85436900</v>
+      </c>
+      <c r="H113" t="s">
+        <v>248</v>
+      </c>
+      <c r="I113" t="s">
+        <v>272</v>
+      </c>
+      <c r="J113">
+        <v>6.95001220703125</v>
+      </c>
+      <c r="K113">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114">
+        <v>378.79000854492188</v>
+      </c>
+      <c r="C114">
+        <v>385.25</v>
+      </c>
+      <c r="D114">
+        <v>378.67001342773438</v>
+      </c>
+      <c r="E114">
+        <v>384.92001342773438</v>
+      </c>
+      <c r="F114">
+        <v>384.92001342773438</v>
+      </c>
+      <c r="G114">
+        <v>78846300</v>
+      </c>
+      <c r="H114" t="s">
+        <v>249</v>
+      </c>
+      <c r="I114" t="s">
+        <v>273</v>
+      </c>
+      <c r="J114">
+        <v>6.579986572265625</v>
+      </c>
+      <c r="K114">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115">
+        <v>381.6199951171875</v>
+      </c>
+      <c r="C115">
+        <v>387.57998657226563</v>
+      </c>
+      <c r="D115">
+        <v>381.35000610351563</v>
+      </c>
+      <c r="E115">
+        <v>382.01998901367188</v>
+      </c>
+      <c r="F115">
+        <v>382.01998901367188</v>
+      </c>
+      <c r="G115">
+        <v>104087300</v>
+      </c>
+      <c r="H115" t="s">
+        <v>153</v>
+      </c>
+      <c r="I115" t="s">
+        <v>272</v>
+      </c>
+      <c r="J115">
+        <v>6.22998046875</v>
+      </c>
+      <c r="K115">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116">
+        <v>383.07000732421881</v>
+      </c>
+      <c r="C116">
+        <v>385</v>
+      </c>
+      <c r="D116">
+        <v>379.32998657226563</v>
+      </c>
+      <c r="E116">
+        <v>379.98001098632813</v>
+      </c>
+      <c r="F116">
+        <v>379.98001098632813</v>
+      </c>
+      <c r="G116">
+        <v>81971800</v>
+      </c>
+      <c r="H116" t="s">
+        <v>250</v>
+      </c>
+      <c r="I116" t="s">
+        <v>271</v>
+      </c>
+      <c r="J116">
+        <v>5.670013427734375</v>
+      </c>
+      <c r="K116">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117">
+        <v>386.44000244140619</v>
+      </c>
+      <c r="C117">
+        <v>388.39999389648438</v>
+      </c>
+      <c r="D117">
+        <v>385.260009765625</v>
+      </c>
+      <c r="E117">
+        <v>386.20999145507813</v>
+      </c>
+      <c r="F117">
+        <v>386.20999145507813</v>
+      </c>
+      <c r="G117">
+        <v>96631300</v>
+      </c>
+      <c r="H117" t="s">
+        <v>251</v>
+      </c>
+      <c r="I117" t="s">
+        <v>271</v>
+      </c>
+      <c r="J117">
+        <v>3.139984130859375</v>
+      </c>
+      <c r="K117">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118">
+        <v>383.89999389648438</v>
+      </c>
+      <c r="C118">
+        <v>388.6300048828125</v>
+      </c>
+      <c r="D118">
+        <v>374.760009765625</v>
+      </c>
+      <c r="E118">
+        <v>374.8699951171875</v>
+      </c>
+      <c r="F118">
+        <v>374.8699951171875</v>
+      </c>
+      <c r="G118">
+        <v>126990400</v>
+      </c>
+      <c r="H118" t="s">
+        <v>252</v>
+      </c>
+      <c r="I118" t="s">
+        <v>276</v>
+      </c>
+      <c r="J118">
+        <v>13.8699951171875</v>
+      </c>
+      <c r="K118">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119">
+        <v>371.47000122070313</v>
+      </c>
+      <c r="C119">
+        <v>374.20001220703119</v>
+      </c>
+      <c r="D119">
+        <v>368.79000854492188</v>
+      </c>
+      <c r="E119">
+        <v>371.010009765625</v>
+      </c>
+      <c r="F119">
+        <v>371.010009765625</v>
+      </c>
+      <c r="G119">
+        <v>87100100</v>
+      </c>
+      <c r="H119" t="s">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>271</v>
+      </c>
+      <c r="J119">
+        <v>5.410003662109375</v>
+      </c>
+      <c r="K119">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120">
+        <v>377</v>
+      </c>
+      <c r="C120">
+        <v>378.8699951171875</v>
+      </c>
+      <c r="D120">
+        <v>370</v>
+      </c>
+      <c r="E120">
+        <v>376.35000610351563</v>
+      </c>
+      <c r="F120">
+        <v>376.35000610351563</v>
+      </c>
+      <c r="G120">
+        <v>103505200</v>
+      </c>
+      <c r="H120" t="s">
+        <v>253</v>
+      </c>
+      <c r="I120" t="s">
+        <v>271</v>
+      </c>
+      <c r="J120">
+        <v>8.8699951171875</v>
+      </c>
+      <c r="K120">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121">
+        <v>377.70999145507813</v>
+      </c>
+      <c r="C121">
+        <v>380.57000732421881</v>
+      </c>
+      <c r="D121">
+        <v>375.52999877929688</v>
+      </c>
+      <c r="E121">
+        <v>379.95001220703119</v>
+      </c>
+      <c r="F121">
+        <v>379.95001220703119</v>
+      </c>
+      <c r="G121">
+        <v>68286900</v>
+      </c>
+      <c r="H121" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" t="s">
+        <v>272</v>
+      </c>
+      <c r="J121">
+        <v>5.040008544921875</v>
+      </c>
+      <c r="K121">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122">
+        <v>381.1099853515625</v>
+      </c>
+      <c r="C122">
+        <v>385.1199951171875</v>
+      </c>
+      <c r="D122">
+        <v>377.72000122070313</v>
+      </c>
+      <c r="E122">
+        <v>382</v>
+      </c>
+      <c r="F122">
+        <v>382</v>
+      </c>
+      <c r="G122">
+        <v>84641100</v>
+      </c>
+      <c r="H122" t="s">
+        <v>254</v>
+      </c>
+      <c r="I122" t="s">
+        <v>272</v>
+      </c>
+      <c r="J122">
+        <v>7.399993896484375</v>
+      </c>
+      <c r="K122">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123">
+        <v>379.92999267578119</v>
+      </c>
+      <c r="C123">
+        <v>381.1400146484375</v>
+      </c>
+      <c r="D123">
+        <v>373.6099853515625</v>
+      </c>
+      <c r="E123">
+        <v>374.1300048828125</v>
+      </c>
+      <c r="F123">
+        <v>374.1300048828125</v>
+      </c>
+      <c r="G123">
+        <v>78495500</v>
+      </c>
+      <c r="H123" t="s">
+        <v>255</v>
+      </c>
+      <c r="I123" t="s">
+        <v>274</v>
+      </c>
+      <c r="J123">
+        <v>7.530029296875</v>
+      </c>
+      <c r="K123">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124">
+        <v>388.04998779296881</v>
+      </c>
+      <c r="C124">
+        <v>395.04000854492188</v>
+      </c>
+      <c r="D124">
+        <v>385.6400146484375</v>
+      </c>
+      <c r="E124">
+        <v>394.69000244140619</v>
+      </c>
+      <c r="F124">
+        <v>394.69000244140619</v>
+      </c>
+      <c r="G124">
+        <v>141455800</v>
+      </c>
+      <c r="H124" t="s">
+        <v>256</v>
+      </c>
+      <c r="I124" t="s">
+        <v>273</v>
+      </c>
+      <c r="J124">
+        <v>9.399993896484375</v>
+      </c>
+      <c r="K124">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125">
+        <v>395.58999633789063</v>
+      </c>
+      <c r="C125">
+        <v>399.35000610351563</v>
+      </c>
+      <c r="D125">
+        <v>393.6099853515625</v>
+      </c>
+      <c r="E125">
+        <v>398.510009765625</v>
+      </c>
+      <c r="F125">
+        <v>398.510009765625</v>
+      </c>
+      <c r="G125">
+        <v>93839900</v>
+      </c>
+      <c r="H125" t="s">
+        <v>257</v>
+      </c>
+      <c r="I125" t="s">
+        <v>272</v>
+      </c>
+      <c r="J125">
+        <v>5.740020751953125</v>
+      </c>
+      <c r="K125">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126">
+        <v>396.66000366210938</v>
+      </c>
+      <c r="C126">
+        <v>400.17999267578119</v>
+      </c>
+      <c r="D126">
+        <v>394.82998657226563</v>
+      </c>
+      <c r="E126">
+        <v>395.1199951171875</v>
+      </c>
+      <c r="F126">
+        <v>395.1199951171875</v>
+      </c>
+      <c r="G126">
+        <v>71903500</v>
+      </c>
+      <c r="H126" t="s">
+        <v>258</v>
+      </c>
+      <c r="I126" t="s">
+        <v>271</v>
+      </c>
+      <c r="J126">
+        <v>5.350006103515625</v>
+      </c>
+      <c r="K126">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127">
+        <v>401.14999389648438</v>
+      </c>
+      <c r="C127">
+        <v>402.30999755859381</v>
+      </c>
+      <c r="D127">
+        <v>394.489990234375</v>
+      </c>
+      <c r="E127">
+        <v>398.489990234375</v>
+      </c>
+      <c r="F127">
+        <v>398.489990234375</v>
+      </c>
+      <c r="G127">
+        <v>93194500</v>
+      </c>
+      <c r="H127" t="s">
+        <v>259</v>
+      </c>
+      <c r="I127" t="s">
+        <v>271</v>
+      </c>
+      <c r="J127">
+        <v>7.82000732421875</v>
+      </c>
+      <c r="K127">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128">
+        <v>396.77999877929688</v>
+      </c>
+      <c r="C128">
+        <v>397.77999877929688</v>
+      </c>
+      <c r="D128">
+        <v>394.79000854492188</v>
+      </c>
+      <c r="E128">
+        <v>395.45001220703119</v>
+      </c>
+      <c r="F128">
+        <v>395.45001220703119</v>
+      </c>
+      <c r="G128">
+        <v>68508500</v>
+      </c>
+      <c r="H128" t="s">
+        <v>260</v>
+      </c>
+      <c r="I128" t="s">
+        <v>271</v>
+      </c>
+      <c r="J128">
+        <v>2.989990234375</v>
+      </c>
+      <c r="K128">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129">
+        <v>390.45999145507813</v>
+      </c>
+      <c r="C129">
+        <v>394.95001220703119</v>
+      </c>
+      <c r="D129">
+        <v>390.1400146484375</v>
+      </c>
+      <c r="E129">
+        <v>394.239990234375</v>
+      </c>
+      <c r="F129">
+        <v>394.239990234375</v>
+      </c>
+      <c r="G129">
+        <v>74496300</v>
+      </c>
+      <c r="H129" t="s">
+        <v>261</v>
+      </c>
+      <c r="I129" t="s">
+        <v>272</v>
+      </c>
+      <c r="J129">
+        <v>4.80999755859375</v>
+      </c>
+      <c r="K129">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130">
+        <v>397.739990234375</v>
+      </c>
+      <c r="C130">
+        <v>397.80999755859381</v>
+      </c>
+      <c r="D130">
+        <v>393.04000854492188</v>
+      </c>
+      <c r="E130">
+        <v>396.02999877929688</v>
+      </c>
+      <c r="F130">
+        <v>396.02999877929688</v>
+      </c>
+      <c r="G130">
+        <v>92922500</v>
+      </c>
+      <c r="H130" t="s">
+        <v>262</v>
+      </c>
+      <c r="I130" t="s">
+        <v>271</v>
+      </c>
+      <c r="J130">
+        <v>4.769989013671875</v>
+      </c>
+      <c r="K130">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131">
+        <v>394.6400146484375</v>
+      </c>
+      <c r="C131">
+        <v>395.82000732421881</v>
+      </c>
+      <c r="D131">
+        <v>392.66000366210938</v>
+      </c>
+      <c r="E131">
+        <v>394.58999633789063</v>
+      </c>
+      <c r="F131">
+        <v>394.58999633789063</v>
+      </c>
+      <c r="G131">
+        <v>51243200</v>
+      </c>
+      <c r="H131" t="s">
+        <v>263</v>
+      </c>
+      <c r="I131" t="s">
+        <v>271</v>
+      </c>
+      <c r="J131">
+        <v>3.160003662109375</v>
+      </c>
+      <c r="K131">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132">
+        <v>399.54998779296881</v>
+      </c>
+      <c r="C132">
+        <v>402.92999267578119</v>
+      </c>
+      <c r="D132">
+        <v>399.30999755859381</v>
+      </c>
+      <c r="E132">
+        <v>402.42001342773438</v>
+      </c>
+      <c r="F132">
+        <v>402.42001342773438</v>
+      </c>
+      <c r="G132">
+        <v>68261600</v>
+      </c>
+      <c r="H132" t="s">
+        <v>264</v>
+      </c>
+      <c r="I132" t="s">
+        <v>272</v>
+      </c>
+      <c r="J132">
+        <v>3.6199951171875</v>
+      </c>
+      <c r="K132">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133">
+        <v>401.82998657226563</v>
+      </c>
+      <c r="C133">
+        <v>402.91000366210938</v>
+      </c>
+      <c r="D133">
+        <v>401.54000854492188</v>
+      </c>
+      <c r="E133">
+        <v>402.32998657226563</v>
+      </c>
+      <c r="F133">
+        <v>402.32998657226563</v>
+      </c>
+      <c r="G133">
+        <v>30545400</v>
+      </c>
+      <c r="H133" t="s">
+        <v>265</v>
+      </c>
+      <c r="I133" t="s">
+        <v>272</v>
+      </c>
+      <c r="J133">
+        <v>1.3699951171875</v>
+      </c>
+      <c r="K133">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134">
+        <v>399.08999633789063</v>
+      </c>
+      <c r="C134">
+        <v>400.80999755859381</v>
+      </c>
+      <c r="D134">
+        <v>395.1099853515625</v>
+      </c>
+      <c r="E134">
+        <v>395.91000366210938</v>
+      </c>
+      <c r="F134">
+        <v>395.91000366210938</v>
+      </c>
+      <c r="G134">
+        <v>67881600</v>
+      </c>
+      <c r="H134" t="s">
+        <v>266</v>
+      </c>
+      <c r="I134" t="s">
+        <v>271</v>
+      </c>
+      <c r="J134">
+        <v>5.70001220703125</v>
+      </c>
+      <c r="K134">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135">
+        <v>396.04998779296881</v>
+      </c>
+      <c r="C135">
+        <v>397.29998779296881</v>
+      </c>
+      <c r="D135">
+        <v>393.29998779296881</v>
+      </c>
+      <c r="E135">
+        <v>395.23001098632813</v>
+      </c>
+      <c r="F135">
+        <v>395.23001098632813</v>
+      </c>
+      <c r="G135">
+        <v>52310000</v>
+      </c>
+      <c r="H135" t="s">
+        <v>214</v>
+      </c>
+      <c r="I135" t="s">
+        <v>271</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+      <c r="K135">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136">
+        <v>395.489990234375</v>
+      </c>
+      <c r="C136">
+        <v>407.67999267578119</v>
+      </c>
+      <c r="D136">
+        <v>393.48001098632813</v>
+      </c>
+      <c r="E136">
+        <v>407.67999267578119</v>
+      </c>
+      <c r="F136">
+        <v>407.67999267578119</v>
+      </c>
+      <c r="G136">
+        <v>144566700</v>
+      </c>
+      <c r="H136" t="s">
+        <v>267</v>
+      </c>
+      <c r="I136" t="s">
+        <v>279</v>
+      </c>
+      <c r="J136">
+        <v>14.19998168945312</v>
+      </c>
+      <c r="K136">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137">
+        <v>402.25</v>
+      </c>
+      <c r="C137">
+        <v>407.8599853515625</v>
+      </c>
+      <c r="D137">
+        <v>402.1400146484375</v>
+      </c>
+      <c r="E137">
+        <v>406.91000366210938</v>
+      </c>
+      <c r="F137">
+        <v>406.91000366210938</v>
+      </c>
+      <c r="G137">
+        <v>85273900</v>
+      </c>
+      <c r="H137" t="s">
+        <v>268</v>
+      </c>
+      <c r="I137" t="s">
+        <v>273</v>
+      </c>
+      <c r="J137">
+        <v>5.719970703125</v>
+      </c>
+      <c r="K137">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>399.42001342773438</v>
+      </c>
+      <c r="C138">
+        <v>399.989990234375</v>
+      </c>
+      <c r="D138">
+        <v>391.6400146484375</v>
+      </c>
+      <c r="E138">
+        <v>393.82998657226563</v>
+      </c>
+      <c r="F138">
+        <v>393.82998657226563</v>
+      </c>
+      <c r="G138">
+        <v>77972200</v>
+      </c>
+      <c r="H138" t="s">
+        <v>221</v>
+      </c>
+      <c r="I138" t="s">
+        <v>274</v>
+      </c>
+      <c r="J138">
+        <v>8.3499755859375</v>
+      </c>
+      <c r="K138">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139">
+        <v>392.94000244140619</v>
+      </c>
+      <c r="C139">
+        <v>395.6400146484375</v>
+      </c>
+      <c r="D139">
+        <v>391.97000122070313</v>
+      </c>
+      <c r="E139">
+        <v>393.16000366210938</v>
+      </c>
+      <c r="F139">
+        <v>393.16000366210938</v>
+      </c>
+      <c r="G139">
+        <v>65927900</v>
+      </c>
+      <c r="H139" t="s">
+        <v>269</v>
+      </c>
+      <c r="I139" t="s">
+        <v>272</v>
+      </c>
+      <c r="J139">
+        <v>3.670013427734375</v>
+      </c>
+      <c r="K139">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140">
         <v>395.1400146484375</v>
       </c>
-      <c r="C50">
+      <c r="C140">
         <v>397.3599853515625</v>
       </c>
-      <c r="D50">
-        <v>393.2699890136719</v>
-      </c>
-      <c r="E50">
+      <c r="D140">
+        <v>393.26998901367188</v>
+      </c>
+      <c r="E140">
         <v>396.239990234375</v>
       </c>
-      <c r="F50">
+      <c r="F140">
         <v>396.239990234375</v>
       </c>
-      <c r="G50">
+      <c r="G140">
         <v>60737900</v>
       </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50">
+      <c r="H140" t="s">
+        <v>270</v>
+      </c>
+      <c r="I140" t="s">
+        <v>272</v>
+      </c>
+      <c r="J140">
         <v>4.089996337890625</v>
       </c>
-      <c r="K50">
-        <v>-90</v>
+      <c r="K140">
+        <v>-449</v>
       </c>
     </row>
   </sheetData>
